--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="projects" r:id="rId5" sheetId="3"/>
-    <sheet name="users" r:id="rId6" sheetId="6"/>
-    <sheet name="boards" r:id="rId7" sheetId="7"/>
+    <sheet name="users" r:id="rId6" sheetId="21"/>
+    <sheet name="boards" r:id="rId7" sheetId="22"/>
+    <sheet name="projects" r:id="rId5" sheetId="23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="48">
   <si>
     <t>no</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -191,40 +200,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -356,7 +332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -401,4 +377,57 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="21"/>
-    <sheet name="boards" r:id="rId7" sheetId="22"/>
-    <sheet name="projects" r:id="rId5" sheetId="23"/>
+    <sheet name="users" r:id="rId6" sheetId="34"/>
+    <sheet name="boards" r:id="rId7" sheetId="35"/>
+    <sheet name="projects" r:id="rId5" sheetId="36"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="57">
   <si>
     <t>no</t>
   </si>
@@ -139,13 +139,13 @@
     <t>members</t>
   </si>
   <si>
+    <t>상어</t>
+  </si>
+  <si>
     <t>아기상어</t>
   </si>
   <si>
-    <t>아기</t>
-  </si>
-  <si>
-    <t>2024-07-25 17:28:39</t>
+    <t>2024-07-26 11:01:35</t>
   </si>
   <si>
     <t>0</t>
@@ -154,10 +154,37 @@
     <t>p1</t>
   </si>
   <si>
+    <t>2024-01-01\</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t/>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>뱀</t>
+  </si>
+  <si>
+    <t>뱀이다~</t>
+  </si>
+  <si>
+    <t>2024-07-26 12:31:57</t>
   </si>
 </sst>
 </file>
@@ -200,9 +227,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -278,52 +305,35 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
@@ -332,9 +342,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -374,14 +384,31 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +445,33 @@
         <v>45</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>47</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="34"/>
-    <sheet name="boards" r:id="rId7" sheetId="35"/>
-    <sheet name="projects" r:id="rId5" sheetId="36"/>
+    <sheet name="users" r:id="rId6" sheetId="64"/>
+    <sheet name="boards" r:id="rId7" sheetId="65"/>
+    <sheet name="projects" r:id="rId5" sheetId="66"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="57">
   <si>
     <t>no</t>
   </si>
@@ -227,7 +227,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -342,7 +342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -406,7 +406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="64"/>
-    <sheet name="boards" r:id="rId7" sheetId="65"/>
-    <sheet name="projects" r:id="rId5" sheetId="66"/>
+    <sheet name="users" r:id="rId6" sheetId="127"/>
+    <sheet name="boards" r:id="rId7" sheetId="128"/>
+    <sheet name="projects" r:id="rId5" sheetId="129"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="63">
   <si>
     <t>no</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>2024-07-26 12:31:57</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user8@test.com</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -227,7 +245,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -271,70 +289,70 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -342,7 +360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -406,7 +424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -471,7 +489,7 @@
         <v>53</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/data.xlsx
+++ b/myapp/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="127"/>
-    <sheet name="boards" r:id="rId7" sheetId="128"/>
-    <sheet name="projects" r:id="rId5" sheetId="129"/>
+    <sheet name="users" r:id="rId6" sheetId="7"/>
+    <sheet name="boards" r:id="rId7" sheetId="8"/>
+    <sheet name="projects" r:id="rId5" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -139,13 +139,25 @@
     <t>members</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user8@test.com</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>상어</t>
   </si>
   <si>
     <t>아기상어</t>
   </si>
   <si>
-    <t>2024-07-26 11:01:35</t>
+    <t>2024-07-29 18:13:55</t>
   </si>
   <si>
     <t>0</t>
@@ -154,55 +166,10 @@
     <t>p1</t>
   </si>
   <si>
-    <t>2024-01-01\</t>
-  </si>
-  <si>
     <t>2024-02-02</t>
   </si>
   <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
-  </si>
-  <si>
-    <t>뱀</t>
-  </si>
-  <si>
-    <t>뱀이다~</t>
-  </si>
-  <si>
-    <t>2024-07-26 12:31:57</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user8@test.com</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t/>
+    <t>2024-03-03</t>
   </si>
 </sst>
 </file>
@@ -245,9 +212,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -289,70 +256,104 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>61</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -360,9 +361,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,33 +391,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -424,9 +408,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,39 +441,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
